--- a/ProtocolFiles/RP_Bubble_v001p1.xlsx
+++ b/ProtocolFiles/RP_Bubble_v001p1.xlsx
@@ -568,7 +568,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B19" s="15" t="n">
-        <v>20150330</v>
+        <v>20180319</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>50</v>
